--- a/Luban/Datas/Scene.xlsx
+++ b/Luban/Datas/Scene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53928C1D-0F3C-4B84-A41A-DE69B92212D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA58A5-30D7-4AE8-899E-012F23FE38DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -407,20 +409,20 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="45.25" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +440,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -456,7 +458,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -474,8 +476,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
